--- a/form.xlsx
+++ b/form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egat\Documents\GitHub\BasePriceEstimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5CD4AC-66C5-4444-B362-6EB4CDE89049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11A3414-76BD-4FF8-9643-DF6640B298AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Q-2024-00013</t>
-  </si>
-  <si>
     <t>TAX ID  0994000244843</t>
   </si>
   <si>
@@ -115,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">Electricity Generating Authority of Thailand </t>
+  </si>
+  <si>
+    <t>Q-2025-00000</t>
   </si>
 </sst>
 </file>
@@ -816,7 +816,7 @@
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -866,12 +866,12 @@
         <v>9</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:13" ht="24.6" x14ac:dyDescent="0.7">
@@ -914,7 +914,7 @@
     </row>
     <row r="10" spans="3:13" ht="24.6" x14ac:dyDescent="0.7">
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.55000000000000004">
@@ -927,15 +927,15 @@
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="43"/>
       <c r="I11" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="45"/>
       <c r="K11" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="46"/>
     </row>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
@@ -1052,7 +1052,7 @@
     <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="6"/>
       <c r="D22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="19">
@@ -1066,7 +1066,7 @@
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
@@ -1097,22 +1097,22 @@
     </row>
     <row r="26" spans="3:15" ht="24.6" x14ac:dyDescent="0.7">
       <c r="C26" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="3:15" ht="90.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="31" spans="3:15" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1163,6 +1163,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0f1a58aa-6e8b-45cb-bff2-5fbe4cf3b7bb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="3289dcbd-49f1-4448-9cd3-4592b1419280" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x010100C7DB09E079DAE24290D708FF70793319" ma:contentTypeVersion="19" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="05b575bebc28ad5b16777d8cc2d17846">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0f1a58aa-6e8b-45cb-bff2-5fbe4cf3b7bb" xmlns:ns3="3289dcbd-49f1-4448-9cd3-4592b1419280" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb84020d873cde91293f4e486df7b2ea" ns2:_="" ns3:_="">
     <xsd:import namespace="0f1a58aa-6e8b-45cb-bff2-5fbe4cf3b7bb"/>
@@ -1423,27 +1443,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7850D7E4-993A-4DC4-949D-E16ADBC9BD43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0f1a58aa-6e8b-45cb-bff2-5fbe4cf3b7bb"/>
+    <ds:schemaRef ds:uri="3289dcbd-49f1-4448-9cd3-4592b1419280"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0f1a58aa-6e8b-45cb-bff2-5fbe4cf3b7bb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="3289dcbd-49f1-4448-9cd3-4592b1419280" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E75370F8-2027-4151-B6C5-F2054BC246F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{345BBED0-716B-417F-8C0F-A26C90F5EFE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1460,23 +1479,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E75370F8-2027-4151-B6C5-F2054BC246F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7850D7E4-993A-4DC4-949D-E16ADBC9BD43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0f1a58aa-6e8b-45cb-bff2-5fbe4cf3b7bb"/>
-    <ds:schemaRef ds:uri="3289dcbd-49f1-4448-9cd3-4592b1419280"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>